--- a/0.사업예산관리/예산신청/계좌별거래내역조회_210118.xlsx
+++ b/0.사업예산관리/예산신청/계좌별거래내역조회_210118.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KangSan\Desktop\조롱이\0.사업예산관리\예산신청\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkpc\Desktop\조롱이\0.사업예산관리\예산신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1509,7 +1509,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1635,43 +1635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFE5E5E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE5E5E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE5E5E5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE5E5E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE5E5E5"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE5E5E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE5E5E5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFE5E5E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1734,10 +1697,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE5E5E5"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color rgb="FFE5E5E5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -1751,7 +1727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1785,9 +1761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1800,49 +1773,61 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2129,7 +2114,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2141,7 +2126,7 @@
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="9" customWidth="1"/>
     <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2163,10 +2148,10 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2175,17 +2160,17 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
-        <v>72380</v>
+        <v>70480</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>181</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F24" si="0">F3-D2+C2</f>
-        <v>-732261</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="25" t="s">
+        <f t="shared" ref="F2:F22" si="0">F3-D2+C2</f>
+        <v>-730611</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="22" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2194,17 +2179,17 @@
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>171130</v>
+        <v>170100</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>180</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" si="0"/>
-        <v>-659881</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="28"/>
+        <v>-660131</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
@@ -2218,10 +2203,10 @@
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>-488751</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="28"/>
+        <v>-490031</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -2235,25 +2220,25 @@
       </c>
       <c r="F5" s="7">
         <f>F6-D5+C5</f>
-        <v>157769</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="26"/>
+        <v>156489</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7">
-        <v>244820</v>
+        <v>243540</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7">
         <f t="shared" ref="F6:F7" si="1">F7-D6+C6</f>
-        <v>707429</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11" t="s">
+        <v>706149</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="25" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2269,8 +2254,8 @@
         <f t="shared" si="1"/>
         <v>462609</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="25" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2286,8 +2271,8 @@
         <f>F9-D8+C8</f>
         <v>261859</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="25" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2303,8 +2288,8 @@
         <f t="shared" si="0"/>
         <v>34499</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="22" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2320,8 +2305,8 @@
         <f t="shared" si="0"/>
         <v>-170501</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
@@ -2335,8 +2320,8 @@
         <f t="shared" si="0"/>
         <v>34499</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="25" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2352,8 +2337,8 @@
         <f t="shared" si="0"/>
         <v>809999</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="25" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2369,8 +2354,8 @@
         <f t="shared" si="0"/>
         <v>104999</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="25" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="22" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2386,8 +2371,8 @@
         <f t="shared" si="0"/>
         <v>-64801</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
@@ -2401,8 +2386,8 @@
         <f t="shared" si="0"/>
         <v>104999</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="25" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2418,8 +2403,8 @@
         <f>F17-D16+C16</f>
         <v>814499</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="25" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2427,16 +2412,16 @@
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8">
-        <v>2248180</v>
+      <c r="D17" s="7">
+        <v>2249460</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>169499</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="25" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="22" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2444,16 +2429,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
-        <v>2248180</v>
+        <v>2249460</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>2417679</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="26"/>
+        <v>2418959</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
@@ -2467,8 +2452,8 @@
         <f t="shared" si="0"/>
         <v>169499</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="25" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="22" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2484,8 +2469,8 @@
         <f t="shared" si="0"/>
         <v>2168749</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="26"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -2499,8 +2484,8 @@
         <f t="shared" si="0"/>
         <v>169499</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="22" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2516,8 +2501,8 @@
         <f t="shared" si="0"/>
         <v>2435139</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1"/>
@@ -2531,51 +2516,51 @@
         <f>F24-D23+C23</f>
         <v>169499</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="11" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
         <v>110000</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14">
+      <c r="E24" s="12"/>
+      <c r="F24" s="13">
         <f>F25-D24+C24</f>
         <v>69499</v>
       </c>
       <c r="G24" s="12"/>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:8" s="19" customFormat="1">
+      <c r="A25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>100000</v>
       </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <v>179499</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2598,10 +2583,10 @@
       <c r="F26" s="7">
         <v>79499</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="22" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2624,10 +2609,10 @@
       <c r="F27" s="7">
         <v>561317</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:8" ht="24">
       <c r="A28" s="1" t="s">
@@ -2648,10 +2633,10 @@
       <c r="F28" s="7">
         <v>79499</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="28" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2674,10 +2659,10 @@
       <c r="F29" s="7">
         <v>2593499</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="28" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2700,10 +2685,10 @@
       <c r="F30" s="7">
         <v>2641681</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="28" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2726,10 +2711,10 @@
       <c r="F31" s="7">
         <v>356226</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="22" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2752,10 +2737,10 @@
       <c r="F32" s="7">
         <v>393046</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="28"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -2776,10 +2761,10 @@
       <c r="F33" s="7">
         <v>479606</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="28"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -2800,10 +2785,10 @@
       <c r="F34" s="7">
         <v>1126126</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -2824,10 +2809,10 @@
       <c r="F35" s="7">
         <v>1471226</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="28" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2850,10 +2835,10 @@
       <c r="F36" s="7">
         <v>1247546</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="28" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2876,10 +2861,10 @@
       <c r="F37" s="7">
         <v>1050056</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="28" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2902,10 +2887,10 @@
       <c r="F38" s="7">
         <v>937876</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="29" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2928,10 +2913,10 @@
       <c r="F39" s="7">
         <v>2924936</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="26"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -2952,10 +2937,10 @@
       <c r="F40" s="7">
         <v>937876</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="29" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2978,10 +2963,10 @@
       <c r="F41" s="7">
         <v>3207196</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="26"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -3002,10 +2987,10 @@
       <c r="F42" s="7">
         <v>937876</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="29" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3028,60 +3013,60 @@
       <c r="F43" s="7">
         <v>2940386</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="26"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>500000</v>
       </c>
-      <c r="D44" s="15">
-        <v>0</v>
-      </c>
-      <c r="E44" s="13" t="s">
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="13">
         <v>937876</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="22" customFormat="1">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:8" s="19" customFormat="1">
+      <c r="A45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="19">
-        <v>0</v>
-      </c>
-      <c r="D45" s="20">
+      <c r="C45" s="17">
+        <v>0</v>
+      </c>
+      <c r="D45" s="18">
         <v>110000</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="17">
         <v>437876</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="27" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3104,10 +3089,10 @@
       <c r="F46" s="7">
         <v>547876</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="29" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3130,10 +3115,10 @@
       <c r="F47" s="7">
         <v>3275149</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="26"/>
+      <c r="H47" s="24"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3154,10 +3139,10 @@
       <c r="F48" s="7">
         <v>547876</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="29" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3180,10 +3165,10 @@
       <c r="F49" s="7">
         <v>3547876</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="26"/>
+      <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
@@ -3204,10 +3189,10 @@
       <c r="F50" s="7">
         <v>547876</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -3228,10 +3213,10 @@
       <c r="F51" s="7">
         <v>47876</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -3252,10 +3237,10 @@
       <c r="F52" s="7">
         <v>47693</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3278,10 +3263,10 @@
       <c r="F53" s="7">
         <v>99643</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="28"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
@@ -3302,10 +3287,10 @@
       <c r="F54" s="7">
         <v>521803</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="28"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -3326,10 +3311,10 @@
       <c r="F55" s="7">
         <v>643793</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="26"/>
+      <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
@@ -3350,10 +3335,10 @@
       <c r="F56" s="7">
         <v>988893</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="28" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3376,10 +3361,10 @@
       <c r="F57" s="7">
         <v>992933</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="28" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3402,10 +3387,10 @@
       <c r="F58" s="7">
         <v>1033353</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="28" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3428,10 +3413,10 @@
       <c r="F59" s="7">
         <v>1034133</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3454,10 +3439,10 @@
       <c r="F60" s="7">
         <v>1041983</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="29" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3480,10 +3465,10 @@
       <c r="F61" s="7">
         <v>3029173</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="26"/>
+      <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
@@ -3504,10 +3489,10 @@
       <c r="F62" s="7">
         <v>1041983</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="28" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3530,10 +3515,10 @@
       <c r="F63" s="7">
         <v>829173</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="28" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3556,10 +3541,10 @@
       <c r="F64" s="7">
         <v>605493</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="22" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3582,10 +3567,10 @@
       <c r="F65" s="7">
         <v>2874813</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="26"/>
+      <c r="H65" s="24"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -3606,66 +3591,66 @@
       <c r="F66" s="7">
         <v>605493</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="14">
-        <v>0</v>
-      </c>
-      <c r="D67" s="15">
+      <c r="C67" s="13">
+        <v>0</v>
+      </c>
+      <c r="D67" s="14">
         <v>500000</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="13">
         <v>105493</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="22" customFormat="1">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:8" s="19" customFormat="1">
+      <c r="A68" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="17">
         <v>269504</v>
       </c>
-      <c r="D68" s="20">
-        <v>0</v>
-      </c>
-      <c r="E68" s="18" t="s">
+      <c r="D68" s="18">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="17">
         <v>605493</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H68" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="23" customFormat="1">
+    <row r="69" spans="1:8" s="20" customFormat="1">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -3684,12 +3669,12 @@
       <c r="F69" s="7">
         <v>335989</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" s="23" customFormat="1">
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" spans="1:8" s="20" customFormat="1">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -3708,14 +3693,14 @@
       <c r="F70" s="7">
         <v>1026300</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="23" customFormat="1">
+    <row r="71" spans="1:8" s="20" customFormat="1">
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
@@ -3734,12 +3719,12 @@
       <c r="F71" s="7">
         <v>3002880</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="26"/>
-    </row>
-    <row r="72" spans="1:8" s="23" customFormat="1">
+      <c r="H71" s="24"/>
+    </row>
+    <row r="72" spans="1:8" s="20" customFormat="1">
       <c r="A72" s="1" t="s">
         <v>92</v>
       </c>
@@ -3758,14 +3743,14 @@
       <c r="F72" s="7">
         <v>1026300</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="25" t="s">
+      <c r="H72" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="23" customFormat="1">
+    <row r="73" spans="1:8" s="20" customFormat="1">
       <c r="A73" s="1" t="s">
         <v>92</v>
       </c>
@@ -3784,12 +3769,12 @@
       <c r="F73" s="7">
         <v>3295620</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="26"/>
-    </row>
-    <row r="74" spans="1:8" s="23" customFormat="1">
+      <c r="H73" s="24"/>
+    </row>
+    <row r="74" spans="1:8" s="20" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
@@ -3808,14 +3793,14 @@
       <c r="F74" s="7">
         <v>1026300</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="H74" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="23" customFormat="1">
+    <row r="75" spans="1:8" s="20" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -3834,12 +3819,12 @@
       <c r="F75" s="7">
         <v>6026300</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H75" s="26"/>
-    </row>
-    <row r="76" spans="1:8" s="23" customFormat="1">
+      <c r="H75" s="24"/>
+    </row>
+    <row r="76" spans="1:8" s="20" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
@@ -3858,14 +3843,14 @@
       <c r="F76" s="7">
         <v>1026300</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="23" customFormat="1">
+    <row r="77" spans="1:8" s="20" customFormat="1">
       <c r="A77" s="1" t="s">
         <v>96</v>
       </c>
@@ -3884,14 +3869,14 @@
       <c r="F77" s="7">
         <v>802620</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="23" customFormat="1">
+    <row r="78" spans="1:8" s="20" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -3910,14 +3895,14 @@
       <c r="F78" s="7">
         <v>758160</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="H78" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="23" customFormat="1">
+    <row r="79" spans="1:8" s="20" customFormat="1">
       <c r="A79" s="1" t="s">
         <v>101</v>
       </c>
@@ -3936,14 +3921,14 @@
       <c r="F79" s="7">
         <v>258160</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="23" customFormat="1">
+    <row r="80" spans="1:8" s="20" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>103</v>
       </c>
@@ -3962,12 +3947,12 @@
       <c r="F80" s="7">
         <v>277600</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H80" s="28"/>
-    </row>
-    <row r="81" spans="1:8" s="23" customFormat="1">
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="1:8" s="20" customFormat="1">
       <c r="A81" s="1" t="s">
         <v>105</v>
       </c>
@@ -3986,12 +3971,12 @@
       <c r="F81" s="7">
         <v>323460</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H81" s="28"/>
-    </row>
-    <row r="82" spans="1:8" s="23" customFormat="1">
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="1:8" s="20" customFormat="1">
       <c r="A82" s="1" t="s">
         <v>107</v>
       </c>
@@ -4010,64 +3995,64 @@
       <c r="F82" s="7">
         <v>547620</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H82" s="26"/>
-    </row>
-    <row r="83" spans="1:8" s="23" customFormat="1">
-      <c r="A83" s="12" t="s">
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="1:8" s="20" customFormat="1">
+      <c r="A83" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="13">
         <v>145340</v>
       </c>
-      <c r="D83" s="15">
-        <v>0</v>
-      </c>
-      <c r="E83" s="13" t="s">
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="13">
         <v>730940</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="30" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="22" customFormat="1" ht="22.5">
-      <c r="A84" s="17" t="s">
+    <row r="84" spans="1:8" s="19" customFormat="1" ht="22.5">
+      <c r="A84" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="19">
-        <v>0</v>
-      </c>
-      <c r="D84" s="20">
+      <c r="C84" s="17">
+        <v>0</v>
+      </c>
+      <c r="D84" s="18">
         <v>160960</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="17">
         <v>585600</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H84" s="21" t="s">
+      <c r="H84" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="23" customFormat="1">
+    <row r="85" spans="1:8" s="20" customFormat="1">
       <c r="A85" s="1" t="s">
         <v>113</v>
       </c>
@@ -4086,14 +4071,14 @@
       <c r="F85" s="7">
         <v>746560</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="H85" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="23" customFormat="1">
+    <row r="86" spans="1:8" s="20" customFormat="1">
       <c r="A86" s="1" t="s">
         <v>115</v>
       </c>
@@ -4112,12 +4097,12 @@
       <c r="F86" s="7">
         <v>769810</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H86" s="28"/>
-    </row>
-    <row r="87" spans="1:8" s="23" customFormat="1">
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" spans="1:8" s="20" customFormat="1">
       <c r="A87" s="1" t="s">
         <v>117</v>
       </c>
@@ -4136,12 +4121,12 @@
       <c r="F87" s="7">
         <v>824590</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H87" s="28"/>
-    </row>
-    <row r="88" spans="1:8" s="23" customFormat="1">
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="1:8" s="20" customFormat="1">
       <c r="A88" s="1" t="s">
         <v>119</v>
       </c>
@@ -4160,12 +4145,12 @@
       <c r="F88" s="7">
         <v>1048750</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G88" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H88" s="26"/>
-    </row>
-    <row r="89" spans="1:8" s="23" customFormat="1">
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:8" s="20" customFormat="1">
       <c r="A89" s="1" t="s">
         <v>121</v>
       </c>
@@ -4184,14 +4169,14 @@
       <c r="F89" s="7">
         <v>1232070</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="23" customFormat="1">
+    <row r="90" spans="1:8" s="20" customFormat="1">
       <c r="A90" s="1" t="s">
         <v>123</v>
       </c>
@@ -4210,14 +4195,14 @@
       <c r="F90" s="7">
         <v>732070</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="23" customFormat="1">
+    <row r="91" spans="1:8" s="20" customFormat="1">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
@@ -4236,64 +4221,64 @@
       <c r="F91" s="7">
         <v>508390</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="23" customFormat="1">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:8" s="20" customFormat="1">
+      <c r="A92" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="13">
         <v>2269320</v>
       </c>
-      <c r="D92" s="15">
-        <v>0</v>
-      </c>
-      <c r="E92" s="13" t="s">
+      <c r="D92" s="14">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F92" s="14">
+      <c r="F92" s="13">
         <v>2777710</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H92" s="29"/>
-    </row>
-    <row r="93" spans="1:8" s="22" customFormat="1">
-      <c r="A93" s="17" t="s">
+      <c r="H92" s="31"/>
+    </row>
+    <row r="93" spans="1:8" s="19" customFormat="1">
+      <c r="A93" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="19">
-        <v>0</v>
-      </c>
-      <c r="D93" s="20">
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="18">
         <v>373290</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="17">
         <v>508390</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H93" s="30" t="s">
+      <c r="H93" s="32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="23" customFormat="1">
+    <row r="94" spans="1:8" s="20" customFormat="1">
       <c r="A94" s="1" t="s">
         <v>127</v>
       </c>
@@ -4312,12 +4297,12 @@
       <c r="F94" s="7">
         <v>881680</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="29"/>
-    </row>
-    <row r="95" spans="1:8" s="23" customFormat="1">
+      <c r="H94" s="31"/>
+    </row>
+    <row r="95" spans="1:8" s="20" customFormat="1">
       <c r="A95" s="1" t="s">
         <v>129</v>
       </c>
@@ -4336,14 +4321,14 @@
       <c r="F95" s="7">
         <v>508390</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="23" customFormat="1">
+    <row r="96" spans="1:8" s="20" customFormat="1">
       <c r="A96" s="1" t="s">
         <v>131</v>
       </c>
@@ -4362,14 +4347,14 @@
       <c r="F96" s="7">
         <v>500000</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="H96" s="25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="23" customFormat="1">
+    <row r="97" spans="1:8" s="20" customFormat="1">
       <c r="A97" s="1" t="s">
         <v>133</v>
       </c>
@@ -4388,56 +4373,56 @@
       <c r="F97" s="7">
         <v>0</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" s="23" customFormat="1">
-      <c r="A98" s="12" t="s">
+      <c r="H97" s="28"/>
+    </row>
+    <row r="98" spans="1:8" s="20" customFormat="1">
+      <c r="A98" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="13">
         <v>4127728</v>
       </c>
-      <c r="D98" s="15">
-        <v>0</v>
-      </c>
-      <c r="E98" s="13" t="s">
+      <c r="D98" s="14">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="13">
         <v>4127728</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H98" s="12"/>
-    </row>
-    <row r="99" spans="1:8" s="22" customFormat="1">
-      <c r="A99" s="17" t="s">
+      <c r="H98" s="30"/>
+    </row>
+    <row r="99" spans="1:8" s="19" customFormat="1">
+      <c r="A99" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C99" s="19">
-        <v>0</v>
-      </c>
-      <c r="D99" s="20">
-        <v>0</v>
-      </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="19">
-        <v>0</v>
-      </c>
-      <c r="G99" s="17" t="s">
+      <c r="C99" s="17">
+        <v>0</v>
+      </c>
+      <c r="D99" s="18">
+        <v>0</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="17">
+        <v>0</v>
+      </c>
+      <c r="G99" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H99" s="17"/>
+      <c r="H99" s="33"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1"/>
@@ -4446,19 +4431,21 @@
       <c r="D100" s="8"/>
       <c r="E100" s="6"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1" t="s">
+      <c r="G100" s="6"/>
+      <c r="H100" s="28" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="H72:H73"/>
     <mergeCell ref="H85:H88"/>
     <mergeCell ref="H91:H92"/>
     <mergeCell ref="H93:H94"/>
     <mergeCell ref="H79:H82"/>
     <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H70:H71"/>
     <mergeCell ref="H64:H65"/>
@@ -4474,8 +4461,6 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
